--- a/实验/汇总.xlsx
+++ b/实验/汇总.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10164" tabRatio="536" activeTab="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>userid</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -123,6 +123,10 @@
   </si>
   <si>
     <t>0320，Parameter.coefficientOfHalfLift=0.3;  periodOfHalfLift=90</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>085用户轨迹较多，选择比较好的轨迹，再选一遍</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -875,10 +879,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1434,6 +1438,11 @@
         <v>1.10546875</v>
       </c>
     </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A26:XFD26"/>
